--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s3_P4_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s3_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1190.914083239687</v>
+        <v>2074.615653474775</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01100015640258789</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.62408323967798</v>
+        <v>23.65265368177027</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.041704902850064</v>
+        <v>15.72005340145628</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.041704902850064</v>
+        <v>6.683053194461346</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1043.350000000009</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>113.94</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -846,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -868,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -890,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -912,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.10555953090583</v>
+        <v>2.469817807045693</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>5.575377337951519</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.35236219599694</v>
+        <v>20.84866676379884</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23.42811290419563</v>
+        <v>14.61296311465065</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.9032781624859</v>
+        <v>12.35722294236247</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25.57537733795152</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,7 +1001,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>6</v>
@@ -1070,7 +1015,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>6</v>
@@ -1084,7 +1029,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
@@ -1098,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>6</v>
@@ -1112,7 +1057,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>6</v>
@@ -1129,7 +1074,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1143,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1157,7 +1102,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1171,7 +1116,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1185,12 +1130,82 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1293,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>144.23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -1304,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>149.405</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -1315,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>147.52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -1326,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>150.875</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -1337,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>146.14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -1348,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>78.50999999999979</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -1359,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>89.96499999999978</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -1370,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>78.14499999999978</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -1381,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>86.69499999999978</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -1392,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>82.95499999999977</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -1403,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18">
@@ -1414,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999985</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19">
@@ -1425,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20">
@@ -1436,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21">
@@ -1447,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22">
@@ -1458,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>152.9850000000009</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
@@ -1469,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>153.2300000000008</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24">
@@ -1480,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>159.1650000000009</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25">
@@ -1491,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>156.6300000000008</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26">
@@ -1502,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>161.4950000000009</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27">
@@ -1513,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>85.66500000000059</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28">
@@ -1524,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>77.02500000000057</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29">
@@ -1535,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>77.97500000000058</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
@@ -1546,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>86.04000000000059</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31">
@@ -1557,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>86.91000000000058</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32">
@@ -1568,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>144.23</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33">
@@ -1579,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>149.405</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34">
@@ -1590,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>147.52</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35">
@@ -1601,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>150.875</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
@@ -1612,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>146.14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37">
@@ -1623,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>152.9850000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1634,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>153.2300000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1645,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>159.1650000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1656,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>156.6300000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1667,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>161.4950000000009</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1714,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>44.22999999999999</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
@@ -1725,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>49.405</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
@@ -1736,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>47.52000000000001</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5">
@@ -1747,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>50.875</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6">
@@ -1758,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>46.14000000000001</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7">
@@ -1769,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>52.98500000000087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1780,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.23000000000084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1791,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>59.16500000000087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1802,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>56.63000000000085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1813,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>61.49500000000086</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -1871,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1882,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -1893,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1904,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1915,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -1926,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.895</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -1937,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.985</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -1948,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1959,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.585</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -1970,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1981,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1992,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2003,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2014,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2025,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2036,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2047,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2058,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2069,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2080,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2091,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2102,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2113,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2124,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2138,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2165,7 +2180,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2176,7 +2191,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2187,7 +2202,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2198,7 +2213,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2209,7 +2224,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2270,6 +2285,61 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
